--- a/ConfigFiles/Config_IT.xlsx
+++ b/ConfigFiles/Config_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfranssens/Dispa-SET.git/ConfigFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Magni\Desktop\Dispa-SET.git\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C57F07-0FA4-7841-8300-192FB426FA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C7CB1-17E2-45A0-8D22-26FB5BD37845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="223">
   <si>
     <t>Default value</t>
   </si>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>True/False without CHP</t>
-  </si>
-  <si>
-    <t>P2HT</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1014,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1085,7 +1082,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1409,23 +1406,23 @@
   <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+      <selection activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>195</v>
       </c>
@@ -1437,7 +1434,7 @@
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
     </row>
-    <row r="2" spans="1:8" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1447,8 +1444,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" s="34" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="49" t="s">
         <v>57</v>
@@ -1460,7 +1457,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1470,7 +1467,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>50</v>
       </c>
@@ -1484,7 +1481,7 @@
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -1493,7 +1490,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
@@ -1502,7 +1499,7 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -1511,7 +1508,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -1520,7 +1517,7 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
@@ -1529,7 +1526,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -1538,7 +1535,7 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -1547,7 +1544,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1556,7 +1553,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>179</v>
       </c>
@@ -1568,39 +1565,39 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
     </row>
-    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="29"/>
     </row>
-    <row r="17" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="30"/>
     </row>
-    <row r="18" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:2" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:2" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>169</v>
       </c>
@@ -1612,7 +1609,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>131</v>
       </c>
@@ -1678,24 +1675,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:8" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:8" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>168</v>
       </c>
@@ -1707,7 +1704,7 @@
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>48</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>199</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>200</v>
       </c>
@@ -1782,19 +1779,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:8" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>166</v>
       </c>
@@ -1806,10 +1803,10 @@
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>42</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>61</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>126</v>
       </c>
@@ -1851,76 +1848,76 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
         <v>173</v>
       </c>
@@ -1932,7 +1929,7 @@
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
     </row>
-    <row r="99" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>140</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>162</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>176</v>
       </c>
@@ -1971,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>174</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>175</v>
       </c>
@@ -1999,30 +1996,30 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="C123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
         <v>167</v>
       </c>
@@ -2034,7 +2031,7 @@
       <c r="G124" s="36"/>
       <c r="H124" s="36"/>
     </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>193</v>
       </c>
@@ -2068,7 +2065,7 @@
       </c>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>41</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>49</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>90</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>127</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>132</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>191</v>
       </c>
@@ -2229,103 +2226,103 @@
       </c>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="C137" s="27"/>
     </row>
-    <row r="138" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="C138" s="27"/>
     </row>
-    <row r="139" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="C139" s="27"/>
     </row>
-    <row r="140" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="C140" s="27"/>
     </row>
-    <row r="141" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="C141" s="27"/>
     </row>
-    <row r="142" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="C142" s="27"/>
     </row>
-    <row r="143" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="C143" s="27"/>
     </row>
-    <row r="144" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="C144" s="27"/>
     </row>
-    <row r="145" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="C145" s="27"/>
     </row>
-    <row r="146" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="C146" s="27"/>
     </row>
-    <row r="147" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="C147" s="27"/>
     </row>
-    <row r="148" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="C148" s="27"/>
     </row>
-    <row r="149" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="C149" s="27"/>
     </row>
-    <row r="150" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="C150" s="27"/>
     </row>
-    <row r="151" spans="1:3" s="26" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" s="26" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="C151" s="27"/>
     </row>
-    <row r="152" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="C152" s="27"/>
     </row>
-    <row r="153" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="C153" s="27"/>
     </row>
-    <row r="154" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="C154" s="27"/>
     </row>
-    <row r="155" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="C155" s="27"/>
     </row>
-    <row r="156" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="C156" s="27"/>
     </row>
-    <row r="157" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="C157" s="27"/>
     </row>
-    <row r="158" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="C158" s="27"/>
     </row>
-    <row r="159" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="C159" s="27"/>
     </row>
-    <row r="160" spans="1:3" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="C160" s="27"/>
     </row>
-    <row r="161" spans="1:8" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>210</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>209</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>202</v>
       </c>
@@ -2376,11 +2373,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="C165" s="27"/>
     </row>
-    <row r="166" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
         <v>192</v>
       </c>
@@ -2392,7 +2389,7 @@
       <c r="G166" s="36"/>
       <c r="H166" s="36"/>
     </row>
-    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>124</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>146</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>138</v>
       </c>
@@ -2449,7 +2446,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>207</v>
       </c>
@@ -2470,47 +2467,47 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="C171" s="27"/>
     </row>
-    <row r="172" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="C172" s="27"/>
     </row>
-    <row r="173" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="C173" s="27"/>
     </row>
-    <row r="174" spans="1:8" s="26" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" s="26" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="C174" s="27"/>
     </row>
-    <row r="175" spans="1:8" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="C175" s="27"/>
     </row>
-    <row r="176" spans="1:8" s="26" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" s="26" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="C176" s="27"/>
     </row>
-    <row r="177" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="C177" s="27"/>
     </row>
-    <row r="178" spans="1:8" s="26" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" s="26" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="C178" s="27"/>
     </row>
-    <row r="179" spans="1:8" s="26" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" s="26" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="C179" s="27"/>
     </row>
-    <row r="180" spans="1:8" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="C180" s="27"/>
     </row>
-    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>122</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>91</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>62</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>123</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>129</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>130</v>
       </c>
@@ -2645,66 +2642,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="C188" s="27"/>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="C192" s="27"/>
     </row>
-    <row r="193" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="C193" s="27"/>
     </row>
-    <row r="194" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="C194" s="27"/>
     </row>
-    <row r="195" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="C195" s="27"/>
     </row>
-    <row r="196" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="C196" s="27"/>
     </row>
-    <row r="197" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="C197" s="27"/>
     </row>
-    <row r="198" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="C198" s="27"/>
     </row>
-    <row r="199" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="C199" s="27"/>
     </row>
-    <row r="200" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="C200" s="27"/>
     </row>
-    <row r="201" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="C201" s="27"/>
     </row>
-    <row r="202" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="C202" s="27"/>
     </row>
-    <row r="203" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="C203" s="27"/>
     </row>
-    <row r="204" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="C204" s="27"/>
     </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>147</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>145</v>
       </c>
@@ -2734,7 +2731,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>148</v>
       </c>
@@ -2749,71 +2746,71 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="C209" s="27"/>
     </row>
-    <row r="210" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="C210" s="27"/>
     </row>
-    <row r="211" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="C211" s="27"/>
     </row>
-    <row r="212" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="C212" s="27"/>
     </row>
-    <row r="213" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="C213" s="27"/>
     </row>
-    <row r="214" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="25"/>
       <c r="C214" s="27"/>
     </row>
-    <row r="215" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="C215" s="27"/>
     </row>
-    <row r="216" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="C216" s="27"/>
     </row>
-    <row r="217" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="C217" s="27"/>
     </row>
-    <row r="218" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="C218" s="27"/>
     </row>
-    <row r="219" spans="1:3" s="26" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" s="26" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="C219" s="27"/>
     </row>
-    <row r="220" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="C220" s="27"/>
     </row>
-    <row r="221" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="C221" s="27"/>
     </row>
-    <row r="222" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="25"/>
       <c r="C222" s="27"/>
     </row>
-    <row r="223" spans="1:3" s="26" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" s="26" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="C223" s="27"/>
     </row>
-    <row r="224" spans="1:3" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="C224" s="14"/>
     </row>
-    <row r="225" spans="1:8" s="41" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="39" t="s">
         <v>170</v>
       </c>
@@ -2837,7 +2834,7 @@
       </c>
       <c r="H225" s="40"/>
     </row>
-    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>51</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="47" t="s">
         <v>52</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="47"/>
       <c r="B228" s="6" t="s">
         <v>22</v>
@@ -2904,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="47"/>
       <c r="B229" s="6" t="s">
         <v>15</v>
@@ -2925,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="47"/>
       <c r="B230" s="6" t="s">
         <v>134</v>
@@ -2946,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="47"/>
       <c r="B231" s="6" t="s">
         <v>5</v>
@@ -2967,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="47"/>
       <c r="B232" s="6" t="s">
         <v>154</v>
@@ -2988,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="47"/>
       <c r="B233" s="6" t="s">
         <v>31</v>
@@ -3009,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="47"/>
       <c r="B234" s="6" t="s">
         <v>16</v>
@@ -3030,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="47"/>
       <c r="B235" s="6" t="s">
         <v>6</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="47"/>
       <c r="B236" s="6" t="s">
         <v>8</v>
@@ -3072,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="47"/>
       <c r="B237" s="6" t="s">
         <v>7</v>
@@ -3093,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="47"/>
       <c r="B238" s="6" t="s">
         <v>9</v>
@@ -3114,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="47"/>
       <c r="B239" s="6" t="s">
         <v>11</v>
@@ -3135,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="47"/>
       <c r="B240" s="6" t="s">
         <v>12</v>
@@ -3156,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="47"/>
       <c r="B241" s="6" t="s">
         <v>28</v>
@@ -3177,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
         <v>13</v>
       </c>
@@ -3197,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
         <v>14</v>
       </c>
@@ -3217,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="50" t="s">
         <v>172</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="50"/>
       <c r="B246" s="6" t="s">
         <v>160</v>
@@ -3284,7 +3281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="6" t="s">
         <v>15</v>
       </c>
@@ -3304,108 +3301,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="C248" s="27"/>
     </row>
-    <row r="249" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="25"/>
       <c r="C249" s="27"/>
     </row>
-    <row r="250" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="C250" s="27"/>
     </row>
-    <row r="251" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="C251" s="27"/>
     </row>
-    <row r="252" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="C252" s="27"/>
     </row>
-    <row r="253" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="C253" s="27"/>
     </row>
-    <row r="254" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="C254" s="27"/>
     </row>
-    <row r="255" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="C255" s="27"/>
     </row>
-    <row r="256" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="25"/>
       <c r="C256" s="27"/>
     </row>
-    <row r="257" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="25"/>
       <c r="C257" s="27"/>
     </row>
-    <row r="258" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="C258" s="27"/>
     </row>
-    <row r="259" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="C259" s="27"/>
     </row>
-    <row r="260" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="C260" s="27"/>
     </row>
-    <row r="261" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="C261" s="27"/>
     </row>
-    <row r="262" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="C262" s="27"/>
     </row>
-    <row r="263" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="25"/>
       <c r="C263" s="27"/>
     </row>
-    <row r="264" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="25"/>
       <c r="C264" s="27"/>
     </row>
-    <row r="265" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="C265" s="27"/>
     </row>
-    <row r="266" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="C266" s="27"/>
     </row>
-    <row r="267" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="C267" s="27"/>
     </row>
-    <row r="268" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="C268" s="27"/>
     </row>
-    <row r="269" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="C269" s="27"/>
     </row>
-    <row r="270" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="25"/>
       <c r="C270" s="27"/>
     </row>
-    <row r="271" spans="1:3" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="25"/>
       <c r="C271" s="27"/>
     </row>
-    <row r="272" spans="1:3" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="C272" s="27"/>
     </row>
-    <row r="273" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:8" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:8" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="35" t="s">
         <v>73</v>
       </c>
@@ -3417,7 +3414,7 @@
       <c r="G274" s="36"/>
       <c r="H274" s="36"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>2</v>
       </c>
@@ -3428,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>74</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>75</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>77</v>
       </c>
@@ -3467,35 +3464,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="284" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:8" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:8" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:8" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="C302" s="14"/>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:8" s="41" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:8" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="39" t="s">
         <v>171</v>
       </c>
@@ -3507,7 +3504,7 @@
       <c r="G304" s="40"/>
       <c r="H304" s="40"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>121</v>
       </c>
@@ -3518,29 +3515,29 @@
         <v>221</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B306" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C306" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B307" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C307" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" s="22" t="s">
         <v>94</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B309" s="22" t="s">
         <v>95</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B310" s="22" t="s">
         <v>96</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
         <v>97</v>
       </c>
@@ -3584,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B312" s="22" t="s">
         <v>98</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B313" s="22" t="s">
         <v>99</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B314" s="22" t="s">
         <v>100</v>
       </c>
@@ -3617,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B315" s="22" t="s">
         <v>101</v>
       </c>
@@ -3628,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B316" s="22" t="s">
         <v>102</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B317" s="22" t="s">
         <v>103</v>
       </c>
@@ -3650,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B318" s="22" t="s">
         <v>104</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B319" s="22" t="s">
         <v>105</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B320" s="22" t="s">
         <v>106</v>
       </c>
@@ -3683,23 +3680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B321" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C321" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D321" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F330" s="2"/>
     </row>
   </sheetData>
@@ -3711,7 +3697,7 @@
     <mergeCell ref="A245:A246"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C226:D247 F226:G247 C79 C35:C36 C306:D321">
+  <conditionalFormatting sqref="C226:D247 F226:G247 C79 C35:C36 C306:D320">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C35)))</formula>
     </cfRule>
@@ -3781,7 +3767,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C226:D247 F226:G247 C306:D321</xm:sqref>
+          <xm:sqref>C226:D247 F226:G247 C306:D320</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization." xr:uid="{00000000-0002-0000-0000-000013000000}">
           <x14:formula1>
@@ -3846,16 +3832,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -3875,7 +3861,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3895,7 +3881,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3912,7 +3898,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -3923,7 +3909,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>133</v>
       </c>
@@ -3931,7 +3917,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -3951,12 +3937,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>107</v>
       </c>
@@ -4000,7 +3986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>92</v>
       </c>
@@ -4047,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
@@ -4094,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>94</v>
       </c>
@@ -4141,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>95</v>
       </c>
@@ -4188,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>96</v>
       </c>
@@ -4235,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>97</v>
       </c>
@@ -4282,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
@@ -4329,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>99</v>
       </c>
@@ -4376,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>100</v>
       </c>
@@ -4423,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>101</v>
       </c>
@@ -4470,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
@@ -4517,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>103</v>
       </c>
@@ -4564,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>104</v>
       </c>
@@ -4611,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
@@ -4658,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>106</v>
       </c>
